--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1244918.924512401</v>
+        <v>-1247475.240339651</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>128.5903119004982</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>106.9687207389934</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>114.6916443068126</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.90504049871111</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>163.1000849240529</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>220.7944836021531</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>199.0453501029411</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.7071366421712</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>1.8804778219025</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>111.96843488665</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>68.11015198958226</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10.03076501615312</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>160.4293964268506</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546831</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>182.4443919360873</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>254.5896809606154</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>90.00079239153477</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2606,7 +2606,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.511541534052</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428209</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1930.094988518961</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C2" t="n">
-        <v>1561.13247157855</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.866772971799</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2316.694828583083</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2316.694828583083</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>2316.694828583083</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574.4909804585988</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>574.4909804585988</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>574.4909804585988</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5778868762056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>279.6879393782953</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>279.6879393782953</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7708032942343</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7708032942343</v>
       </c>
       <c r="T4" t="n">
-        <v>756.1394452888385</v>
+        <v>899.7708032942343</v>
       </c>
       <c r="U4" t="n">
-        <v>756.1394452888385</v>
+        <v>899.7708032942343</v>
       </c>
       <c r="V4" t="n">
-        <v>756.1394452888385</v>
+        <v>645.0863150883474</v>
       </c>
       <c r="W4" t="n">
-        <v>756.1394452888385</v>
+        <v>645.0863150883474</v>
       </c>
       <c r="X4" t="n">
-        <v>756.1394452888385</v>
+        <v>417.09676419033</v>
       </c>
       <c r="Y4" t="n">
-        <v>756.1394452888385</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1771.418012197379</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1402.455495256967</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D5" t="n">
-        <v>1044.189796650217</v>
+        <v>731.5828752918117</v>
       </c>
       <c r="E5" t="n">
-        <v>1044.189796650217</v>
+        <v>731.5828752918117</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>724.6373745426082</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>309.5649243876047</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261501</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.570363233848</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X7" t="n">
-        <v>629.570363233848</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>629.570363233848</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1749.723851760224</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3146.517019813456</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4984,25 +4984,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>820.9244627008107</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>599.1578472703368</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>310.0549803959803</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="V10" t="n">
-        <v>310.0549803959803</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="W10" t="n">
-        <v>310.0549803959803</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X10" t="n">
-        <v>310.0549803959803</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y10" t="n">
         <v>310.0549803959803</v>
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5279,7 +5279,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745236</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,28 +5738,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5947,13 +5947,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1176.540071749208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>948.5505208511905</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6613,10 +6613,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,16 +7111,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>236.6825798705093</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>242.2722479784196</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30.06337060750818</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>26.70549264291273</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.7126101431595</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>31.93331737597558</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>56.4331702550344</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788527</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>6.922421112517185</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26323,7 +26323,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302513</v>
@@ -26332,19 +26332,19 @@
         <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194637</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936316</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551181</v>
@@ -26418,46 +26418,46 @@
         <v>11387.332166915</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687961</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997313</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295739.091651011</v>
+        <v>-1296099.174666729</v>
       </c>
       <c r="C6" t="n">
+        <v>-16796.28644598206</v>
+      </c>
+      <c r="D6" t="n">
         <v>-16796.28644598208</v>
       </c>
-      <c r="D6" t="n">
-        <v>-16796.286445982</v>
-      </c>
       <c r="E6" t="n">
-        <v>-260363.6467078906</v>
+        <v>-260398.3846333263</v>
       </c>
       <c r="F6" t="n">
-        <v>65048.81509946479</v>
+        <v>65014.07717402885</v>
       </c>
       <c r="G6" t="n">
-        <v>65048.81509946419</v>
+        <v>65014.07717402872</v>
       </c>
       <c r="H6" t="n">
-        <v>65048.81509946455</v>
+        <v>65014.07717402889</v>
       </c>
       <c r="I6" t="n">
-        <v>65048.81509946447</v>
+        <v>65014.07717402895</v>
       </c>
       <c r="J6" t="n">
-        <v>-152482.3872978129</v>
+        <v>-152517.1252232485</v>
       </c>
       <c r="K6" t="n">
-        <v>65048.81509946451</v>
+        <v>65014.07717402893</v>
       </c>
       <c r="L6" t="n">
         <v>38715.06510194344</v>
       </c>
       <c r="M6" t="n">
-        <v>-26912.24483993671</v>
+        <v>-26912.24483993665</v>
       </c>
       <c r="N6" t="n">
-        <v>58142.78309557514</v>
+        <v>58142.78309557517</v>
       </c>
       <c r="O6" t="n">
         <v>58142.78309557514</v>
       </c>
       <c r="P6" t="n">
-        <v>58142.78309557508</v>
+        <v>58142.78309557514</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>41.32161952842348</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56.44886435211626</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>186.0815621395583</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>95.5624142843794</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>29.84181263399805</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>223.8291775671346</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>253.3044568843576</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>182.8850199693197</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>179.7382603152888</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>125.7824417787623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33190,7 +33190,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
@@ -33257,10 +33257,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33284,7 +33284,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
